--- a/Matriz Rastreabilidade(Atualizado).xlsx
+++ b/Matriz Rastreabilidade(Atualizado).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96dddf64a52c92cc/Ambiente de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao1\OneDrive\Ambiente de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{A0BBEA7B-1158-4136-A1A3-A24481A4CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5B20F2-5763-42A0-9200-149C8FD5DB74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27208E5B-0D3F-49B1-8904-65729E063F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
   <si>
     <t>Descrição</t>
   </si>
@@ -393,13 +393,59 @@
     <t>role = "admin", method = "GET", url = "api/order</t>
   </si>
   <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados </t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Funções/Ficheiros</t>
+  </si>
+  <si>
+    <t>Token = null or empty</t>
+  </si>
+  <si>
+    <t>should return an error when trying to create a user without a password</t>
+  </si>
+  <si>
+    <t>missing field (password)</t>
+  </si>
+  <si>
+    <t>success: false, 'Todos os campos são necessários'</t>
+  </si>
+  <si>
+    <t>user = null</t>
+  </si>
+  <si>
+    <t>should return null for a non existent id</t>
+  </si>
+  <si>
+    <t>should create and decode a valid JWT token after successful login</t>
+  </si>
+  <si>
+    <t>sucessfull login</t>
+  </si>
+  <si>
+    <t>Valid token created on login and successfull token decoded</t>
+  </si>
+  <si>
+    <t>id = 999 doesn't exist</t>
+  </si>
+  <si>
+    <t>should return false if user does not have permission</t>
+  </si>
+  <si>
+    <t>should return false if role does not exist in rbac</t>
+  </si>
+  <si>
+    <t>hasPermission</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">                         </t>
     </r>
     <r>
       <rPr>
@@ -427,19 +473,15 @@
     </r>
   </si>
   <si>
-    <t>Testes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dados </t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>Funções/Ficheiros</t>
-  </si>
-  <si>
-    <t>Token = null or empty</t>
+    <t>user = { id: 2, role: "user" };
+ method = "POST";
+ path = "/api/order";</t>
+  </si>
+  <si>
+    <t>role = guest (doesn't exist)</t>
+  </si>
+  <si>
+    <t>Permission = false</t>
   </si>
 </sst>
 </file>
@@ -631,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,54 +717,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +747,57 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1068,10 +1113,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1085,8 +1130,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1098,10 +1143,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1115,8 +1160,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1128,8 +1173,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1141,8 +1186,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1154,8 +1199,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
@@ -1167,8 +1212,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1180,10 +1225,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1197,8 +1242,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1210,8 +1255,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1223,8 +1268,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1281,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1249,10 +1294,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="33">
         <v>4</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1266,8 +1311,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
@@ -1279,8 +1324,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
@@ -1292,8 +1337,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1305,10 +1350,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="27">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1322,8 +1367,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1335,8 +1380,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1348,8 +1393,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1361,8 +1406,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
@@ -1374,10 +1419,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="30">
         <v>6</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -1391,8 +1436,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
@@ -1404,8 +1449,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="12" t="s">
         <v>33</v>
       </c>
@@ -1417,8 +1462,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1430,332 +1475,399 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="E32" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>1</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
-        <v>1</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="33" t="s">
+      <c r="E34" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>2</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>3</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34">
-        <v>2</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
-        <v>3</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="D47" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>4</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="37">
-        <v>4</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="37" t="s">
+      <c r="E49" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D50" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E50" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D51" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E51" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D52" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E52" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="39">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>5</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C53" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D53" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E53" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D54" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E54" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D55" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E55" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D56" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E56" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D57" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>116</v>
+      <c r="E57" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
